--- a/labo2/datos_experimentales.xlsx
+++ b/labo2/datos_experimentales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\produccion_acetato_etilo\labo2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Unit_Operations_II\labo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA5389D-E8FE-41F9-A2F6-CC9893B7C892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0515E82-1EFA-465B-AF8B-0E89EA5CA6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1920" windowWidth="19200" windowHeight="7344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="19200" windowHeight="7344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,7 +644,7 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="C9" s="3">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="D9" s="2">
         <v>0.51439999999999997</v>
@@ -664,7 +664,7 @@
         <v>0.51300000000000001</v>
       </c>
       <c r="C10" s="3">
-        <v>9.8000000000000007</v>
+        <v>10.3</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -684,7 +684,7 @@
         <v>0.52600000000000002</v>
       </c>
       <c r="C11" s="3">
-        <v>9</v>
+        <v>10.3</v>
       </c>
       <c r="D11" s="2">
         <v>0.52310000000000001</v>
@@ -704,7 +704,7 @@
         <v>0.53700000000000003</v>
       </c>
       <c r="C12" s="3">
-        <v>9</v>
+        <v>10.8</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>

--- a/labo2/datos_experimentales.xlsx
+++ b/labo2/datos_experimentales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Unit_Operations_II\labo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0515E82-1EFA-465B-AF8B-0E89EA5CA6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02992AC0-48CC-45FE-824E-FD8B34ED60D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="19200" windowHeight="7344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C9:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,7 +644,7 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="C9" s="3">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
         <v>0.51439999999999997</v>
@@ -664,7 +664,7 @@
         <v>0.51300000000000001</v>
       </c>
       <c r="C10" s="3">
-        <v>10.3</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -684,7 +684,7 @@
         <v>0.52600000000000002</v>
       </c>
       <c r="C11" s="3">
-        <v>10.3</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2">
         <v>0.52310000000000001</v>
@@ -704,7 +704,7 @@
         <v>0.53700000000000003</v>
       </c>
       <c r="C12" s="3">
-        <v>10.8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>

--- a/labo2/datos_experimentales.xlsx
+++ b/labo2/datos_experimentales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Unit_Operations_II\labo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02992AC0-48CC-45FE-824E-FD8B34ED60D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75080CF4-A949-40BC-B2E9-F129FFA8BC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="19200" windowHeight="7344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -476,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C9:C12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,198 +521,178 @@
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>0.5262</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="C3" s="3">
-        <v>10.7</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.05</v>
+        <v>10.9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F3" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="C4" s="3">
-        <v>10.9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2">
-        <v>60</v>
+      <c r="A4" s="4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4">
+        <v>58.7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10.7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="4">
-        <v>58.7</v>
+      <c r="A5" s="2">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.55649999999999999</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10.61</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.53449999999999998</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="2">
+        <v>54.1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>30</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.55649999999999999</v>
-      </c>
-      <c r="C6" s="3">
-        <v>10.61</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.53449999999999998</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="F6" s="2">
-        <v>54.1</v>
+      <c r="A6" s="4">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="C6" s="4">
+        <v>10.58</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4">
+        <v>49.3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>40</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="C7" s="4">
-        <v>10.58</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="4">
-        <v>49.3</v>
+      <c r="A7" s="2">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10.54</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B8" s="3">
-        <v>0.55500000000000005</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="C8" s="3">
-        <v>10.54</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.51439999999999997</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.05</v>
       </c>
       <c r="F8" s="2">
-        <v>45.5</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B9" s="3">
-        <v>0.52200000000000002</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="C9" s="3">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.51439999999999997</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.05</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F9" s="2">
-        <v>43.3</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="B10" s="3">
-        <v>0.51300000000000001</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="C10" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.52310000000000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.05</v>
       </c>
       <c r="F10" s="2">
-        <v>47.7</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="B11" s="3">
-        <v>0.52600000000000002</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="C11" s="3">
         <v>9</v>
       </c>
-      <c r="D11" s="2">
-        <v>0.52310000000000001</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.05</v>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F11" s="2">
-        <v>63.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>150</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="C12" s="3">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="2">
         <v>62.2</v>
       </c>
     </row>
